--- a/va_facility_data_2025-02-20/Plattsburgh VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Plattsburgh%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Plattsburgh VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Plattsburgh%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc183f9e641434d6a8cbb5f753dcaf6f7"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R35e6ef856b944f1c95d9d007bc19aea4"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2751c18b093f45e3a863ea6547cf2797"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf955de0b28434f84a949b7a5fb0d2293"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8ae85d9782ea496798c68ffd108d1916"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf44756a1e2794549971146ceb04f45ac"/>
   </x:sheets>
 </x:workbook>
 </file>
